--- a/fnsco-war-lkl/src/main/webapp/template/商户信息导入模板.xlsx
+++ b/fnsco-war-lkl/src/main/webapp/template/商户信息导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="12630" tabRatio="162"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
   <si>
     <t>工商注册名称（协议签约一致）</t>
   </si>
@@ -112,12 +112,6 @@
     <t>创建时间</t>
   </si>
   <si>
-    <t>浦发商户号</t>
-  </si>
-  <si>
-    <t>浦发系统中的key</t>
-  </si>
-  <si>
     <t>税务登记号</t>
   </si>
   <si>
@@ -154,37 +148,19 @@
     <t>机具厂家</t>
   </si>
   <si>
+    <t>一级类目</t>
+  </si>
+  <si>
+    <t>二级类目</t>
+  </si>
+  <si>
     <t>通道商户号</t>
   </si>
   <si>
     <t>通道终端号</t>
   </si>
   <si>
-    <t>内部终端号 10000000</t>
-  </si>
-  <si>
-    <t>刷卡通道终端号</t>
-  </si>
-  <si>
-    <t>扫码通道终端号</t>
-  </si>
-  <si>
-    <t>支付方式</t>
-  </si>
-  <si>
-    <t>结算周期</t>
-  </si>
-  <si>
-    <t>公众号ID</t>
-  </si>
-  <si>
-    <t>域名</t>
-  </si>
-  <si>
-    <t>一级类目</t>
-  </si>
-  <si>
-    <t>二级类目</t>
+    <t>终端类型（00刷卡，01扫码）</t>
   </si>
   <si>
     <r>
@@ -264,18 +240,27 @@
   <si>
     <t>4</t>
   </si>
+  <si>
+    <t>123123123</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -338,13 +323,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -360,10 +338,79 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -375,45 +422,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -429,37 +437,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -478,7 +463,12 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -490,6 +480,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -502,55 +576,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,109 +654,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -731,16 +721,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -771,6 +767,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -794,21 +799,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -817,10 +807,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -829,137 +819,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -987,6 +977,9 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1022,6 +1015,12 @@
     </xf>
     <xf numFmtId="10" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1349,10 +1348,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BD2"/>
+  <dimension ref="A1:AV2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BG28" sqref="BG28"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AT6" sqref="AT6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="1"/>
@@ -1369,309 +1368,284 @@
     <col min="26" max="27" width="33.125" style="7" customWidth="1"/>
     <col min="28" max="30" width="19.375" style="7" customWidth="1"/>
     <col min="31" max="31" width="24.375" style="8" customWidth="1"/>
-    <col min="32" max="32" width="24.625" style="8" customWidth="1"/>
-    <col min="33" max="33" width="47" style="7" customWidth="1"/>
-    <col min="34" max="34" width="18.5" style="7" customWidth="1"/>
+    <col min="32" max="32" width="18.5" style="7" customWidth="1"/>
+    <col min="33" max="33" width="24.625" style="7" customWidth="1"/>
+    <col min="34" max="34" width="57.125" style="7" customWidth="1"/>
     <col min="35" max="35" width="24.625" style="7" customWidth="1"/>
-    <col min="36" max="36" width="36" style="7" customWidth="1"/>
-    <col min="37" max="37" width="24.625" style="7" customWidth="1"/>
-    <col min="38" max="39" width="24.625" style="3" customWidth="1"/>
-    <col min="40" max="48" width="22.625" style="3" customWidth="1"/>
-    <col min="49" max="49" width="18.375" style="3" customWidth="1"/>
-    <col min="50" max="50" width="18.875" style="3" customWidth="1"/>
-    <col min="51" max="51" width="10.25" style="3" customWidth="1"/>
-    <col min="52" max="16384" width="9" style="3"/>
+    <col min="36" max="37" width="24.625" style="3" customWidth="1"/>
+    <col min="38" max="42" width="22.625" style="3" customWidth="1"/>
+    <col min="43" max="43" width="19.375" style="3" customWidth="1"/>
+    <col min="44" max="44" width="9" style="3"/>
+    <col min="45" max="45" width="10.75" style="3" customWidth="1"/>
+    <col min="46" max="46" width="10.625" style="9" customWidth="1"/>
+    <col min="47" max="47" width="12.625" style="9" customWidth="1"/>
+    <col min="48" max="48" width="19.375" style="9" customWidth="1"/>
+    <col min="49" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="32.1" customHeight="1" spans="1:56">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="1" customFormat="1" ht="32.1" customHeight="1" spans="1:48">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="X1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Y1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="Z1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AA1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AB1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AC1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AD1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AE1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AF1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AG1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AH1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AI1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="10" t="s">
+      <c r="AK1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AL1" s="10" t="s">
         <v>37</v>
       </c>
       <c r="AM1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AN1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="9" t="s">
+      <c r="AO1" s="10" t="s">
         <v>40</v>
       </c>
       <c r="AP1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="9" t="s">
+      <c r="AQ1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="9" t="s">
+      <c r="AR1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="9" t="s">
+      <c r="AS1" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="9" t="s">
+      <c r="AT1" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="9" t="s">
+      <c r="AU1" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="10" t="s">
+      <c r="AV1" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="20" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" ht="24" customHeight="1" spans="1:48">
+      <c r="A2" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="20" t="s">
+      <c r="B2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="20" t="s">
+      <c r="C2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="20" t="s">
+      <c r="D2" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="20" t="s">
+      <c r="E2" s="16">
+        <v>13758697221</v>
+      </c>
+      <c r="F2" s="17">
+        <v>45126</v>
+      </c>
+      <c r="G2" s="17">
+        <v>45126</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="20" t="s">
+      <c r="I2" s="16"/>
+      <c r="J2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="20" t="s">
+      <c r="K2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="20" t="s">
+      <c r="L2" s="13" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="24" customHeight="1" spans="1:56">
-      <c r="A2" s="12" t="s">
+      <c r="M2" s="14">
+        <v>15669499932</v>
+      </c>
+      <c r="N2" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="V2" s="16">
+        <v>0</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y2" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="Z2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="15">
-        <v>13758697221</v>
-      </c>
-      <c r="F2" s="16">
-        <v>45126</v>
-      </c>
-      <c r="G2" s="16">
-        <v>45126</v>
-      </c>
-      <c r="H2" s="14" t="s">
+      <c r="AA2" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="13" t="s">
+      <c r="AB2" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="AC2" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="AD2" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="M2" s="13">
-        <v>15669499932</v>
-      </c>
-      <c r="N2" s="17" t="s">
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="14" t="s">
+      <c r="AH2" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="V2" s="15">
+      <c r="AI2" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ2" s="16">
         <v>0</v>
       </c>
-      <c r="W2" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="X2" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y2" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z2" s="14" t="s">
+      <c r="AK2" s="16">
+        <v>28805640</v>
+      </c>
+      <c r="AL2" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="AA2" s="14" t="s">
+      <c r="AM2" s="16">
+        <v>28805645</v>
+      </c>
+      <c r="AN2" s="16">
+        <v>28805646</v>
+      </c>
+      <c r="AO2" s="15"/>
+      <c r="AP2" s="16"/>
+      <c r="AQ2" s="16"/>
+      <c r="AR2" s="16"/>
+      <c r="AS2" s="16"/>
+      <c r="AT2" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="AB2" s="14" t="s">
+      <c r="AU2" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="AC2" s="14" t="s">
+      <c r="AV2" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="AD2" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ2" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK2" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="AL2" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="15">
-        <v>28805640</v>
-      </c>
-      <c r="AN2" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO2" s="15">
-        <v>28805645</v>
-      </c>
-      <c r="AP2" s="15">
-        <v>28805646</v>
-      </c>
-      <c r="AQ2" s="14"/>
-      <c r="AR2" s="15"/>
-      <c r="AS2" s="15"/>
-      <c r="AT2" s="15"/>
-      <c r="AU2" s="15"/>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="15"/>
-      <c r="AX2" s="15"/>
-      <c r="AY2" s="15"/>
-      <c r="AZ2" s="15"/>
-      <c r="BA2" s="15"/>
-      <c r="BB2" s="15"/>
-      <c r="BC2" s="15"/>
-      <c r="BD2" s="15"/>
     </row>
   </sheetData>
   <dataValidations count="1">
